--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1233664.995947988</v>
+        <v>-1235563.228052111</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>459917.7343778713</v>
+        <v>259544.6412528477</v>
       </c>
     </row>
     <row r="8">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>266.2669389643073</v>
+        <v>358.0936327991784</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,16 +713,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>131.3817190306764</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -801,7 +801,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034773</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>223.1498336210771</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>34.93880498431617</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>403.1140263363082</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>76.48464164091949</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0.2130834725789987</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>142.3945047270882</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1151,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>33.26305679144306</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>128.6652719985047</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>9.764863467406547</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>80.83119524460984</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>122.9020511713935</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505273999</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>50.71050212970957</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1813,19 +1813,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>101.4950386131015</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.25333915917232</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>115.216550257373</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2239,13 +2239,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2293,19 +2293,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>192.8225453896847</v>
+        <v>12.68762643336706</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>16.80143774892532</v>
+        <v>170.9733491822242</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.964516789693</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>21.8669619715456</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>5.908038455239541</v>
       </c>
     </row>
     <row r="29">
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789563</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3016,7 +3016,7 @@
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224547</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274074</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789518</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3247,7 +3247,7 @@
         <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069507</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="36">
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3560,7 +3560,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463133</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1245.039635429691</v>
+        <v>1529.774767027777</v>
       </c>
       <c r="C2" t="n">
-        <v>876.077118489279</v>
+        <v>1160.812250087365</v>
       </c>
       <c r="D2" t="n">
-        <v>876.077118489279</v>
+        <v>1160.812250087365</v>
       </c>
       <c r="E2" t="n">
-        <v>490.2888658910347</v>
+        <v>1160.812250087365</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>1971.274048960885</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1618.50539369077</v>
+        <v>1529.774767027777</v>
       </c>
       <c r="X2" t="n">
-        <v>1245.039635429691</v>
+        <v>1529.774767027777</v>
       </c>
       <c r="Y2" t="n">
-        <v>1245.039635429691</v>
+        <v>1529.774767027777</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4422,28 +4422,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U4" t="n">
-        <v>502.7251118619119</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>502.7251118619119</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1383.846446409823</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="C5" t="n">
-        <v>1383.846446409823</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D5" t="n">
-        <v>1025.580747803072</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
-        <v>1025.580747803072</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>614.5948430134649</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4595,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.451536646714</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>2147.451536646714</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X5" t="n">
-        <v>1773.985778385635</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="Y5" t="n">
-        <v>1383.846446409823</v>
+        <v>1738.858660051663</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,16 +4644,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>507.1211692320162</v>
+        <v>131.200195599071</v>
       </c>
       <c r="C7" t="n">
-        <v>338.1849863041093</v>
+        <v>131.200195599071</v>
       </c>
       <c r="D7" t="n">
-        <v>338.1849863041093</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X7" t="n">
-        <v>727.9137483755463</v>
+        <v>351.9927747426011</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.1211692320162</v>
+        <v>131.200195599071</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1970.914677487028</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C8" t="n">
-        <v>1601.952160546617</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D8" t="n">
-        <v>1243.686461939866</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E8" t="n">
-        <v>1243.686461939866</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>832.7005571502586</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>414.7367490484455</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>87.54202908444836</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487028</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y8" t="n">
-        <v>1970.914677487028</v>
+        <v>1739.708500331692</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4990,22 +4990,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>718.2654857545084</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>718.2654857545084</v>
       </c>
       <c r="V10" t="n">
-        <v>500.820796875036</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="W10" t="n">
-        <v>500.820796875036</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="X10" t="n">
-        <v>500.820796875036</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.820796875036</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,40 +5024,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5121,25 +5121,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6886509252902</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.32563221405</v>
+        <v>1026.585720682179</v>
       </c>
       <c r="M12" t="n">
-        <v>1608.660951743751</v>
+        <v>1346.921040211881</v>
       </c>
       <c r="N12" t="n">
-        <v>1953.181607381369</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O12" t="n">
-        <v>2201.935021465331</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P12" t="n">
-        <v>2384.578499078682</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>675.7175987609741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>506.7814158330672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1306.193495155475</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W13" t="n">
-        <v>1209.499100520942</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X13" t="n">
-        <v>981.5095496229244</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y13" t="n">
-        <v>857.3660635912138</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5267,16 +5267,16 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822454</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>575.7664246322204</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L15" t="n">
-        <v>1189.663494389109</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M15" t="n">
-        <v>1509.998813918811</v>
+        <v>1604.839867667473</v>
       </c>
       <c r="N15" t="n">
-        <v>1854.519469556429</v>
+        <v>1949.360523305091</v>
       </c>
       <c r="O15" t="n">
-        <v>2103.272883640391</v>
+        <v>2198.113937389053</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>465.2890973945349</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>296.352914466628</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5461,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>874.927113122792</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V16" t="n">
-        <v>874.927113122792</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W16" t="n">
-        <v>874.927113122792</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X16" t="n">
-        <v>646.9375622247746</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y16" t="n">
-        <v>646.9375622247746</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5507,25 +5507,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5546,19 +5546,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5595,25 +5595,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L18" t="n">
-        <v>1214.889396603097</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M18" t="n">
-        <v>1214.889396603097</v>
+        <v>1645.803509761998</v>
       </c>
       <c r="N18" t="n">
-        <v>1559.410052240715</v>
+        <v>1645.803509761998</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2315.267271064658</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>275.872457296028</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V19" t="n">
-        <v>786.0822064765186</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="W19" t="n">
-        <v>496.665036439558</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>496.665036439558</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>275.872457296028</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5741,34 +5741,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5832,25 +5832,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L21" t="n">
-        <v>711.1141612171745</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M21" t="n">
-        <v>1031.449480746876</v>
+        <v>1156.807040804714</v>
       </c>
       <c r="N21" t="n">
-        <v>1559.410052240715</v>
+        <v>1961.218619068864</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>714.6010158349783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>545.6648329070714</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5941,19 +5941,19 @@
         <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>1164.055751909234</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V22" t="n">
-        <v>909.3712637033467</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W22" t="n">
-        <v>909.3712637033467</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X22" t="n">
-        <v>714.6010158349783</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>714.6010158349783</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805457</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899127</v>
@@ -6069,25 +6069,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>147.7932167150694</v>
       </c>
       <c r="L24" t="n">
-        <v>711.1141612171746</v>
+        <v>761.6902864719582</v>
       </c>
       <c r="M24" t="n">
-        <v>1479.482307609636</v>
+        <v>1082.02560600166</v>
       </c>
       <c r="N24" t="n">
-        <v>2283.893885873787</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O24" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>676.0189678006951</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C25" t="n">
-        <v>507.0827848727882</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6172,25 +6172,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U25" t="n">
-        <v>1147.084602667896</v>
+        <v>791.4353891154691</v>
       </c>
       <c r="V25" t="n">
-        <v>1147.084602667896</v>
+        <v>536.7509009095822</v>
       </c>
       <c r="W25" t="n">
-        <v>857.6674326309349</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="X25" t="n">
-        <v>857.6674326309349</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y25" t="n">
-        <v>857.6674326309349</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6215,7 @@
         <v>904.3190116155904</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6227,16 +6227,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643324</v>
@@ -6306,25 +6306,25 @@
         <v>97.21709146028589</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028589</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L27" t="n">
-        <v>711.1141612171747</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M27" t="n">
-        <v>1149.698165809328</v>
+        <v>1128.069692924717</v>
       </c>
       <c r="N27" t="n">
-        <v>1954.109744073479</v>
+        <v>1128.069692924717</v>
       </c>
       <c r="O27" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>868.4856756861158</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C28" t="n">
-        <v>699.5494927582089</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D28" t="n">
-        <v>549.4328533458731</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>549.4328533458731</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028589</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557903</v>
+        <v>709.4512536188996</v>
       </c>
       <c r="W28" t="n">
-        <v>1498.916270557903</v>
+        <v>420.034083581939</v>
       </c>
       <c r="X28" t="n">
-        <v>1270.926719659886</v>
+        <v>420.034083581939</v>
       </c>
       <c r="Y28" t="n">
-        <v>1050.134140516356</v>
+        <v>414.0663679705859</v>
       </c>
     </row>
     <row r="29">
@@ -6464,22 +6464,22 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207829</v>
@@ -6543,25 +6543,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="M30" t="n">
-        <v>2030.299435654558</v>
+        <v>1157.264000062947</v>
       </c>
       <c r="N30" t="n">
-        <v>2374.820091292176</v>
+        <v>1353.784551727102</v>
       </c>
       <c r="O30" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029761</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
@@ -6622,10 +6622,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6661,10 +6661,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6680,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6780,25 +6780,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>463.2137177573978</v>
       </c>
       <c r="M33" t="n">
-        <v>2056.693778606511</v>
+        <v>783.5490372870996</v>
       </c>
       <c r="N33" t="n">
-        <v>2623.573505376138</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O33" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6835,19 +6835,19 @@
         <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6892,7 +6892,7 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
@@ -6914,31 +6914,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,16 +6947,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606511</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N36" t="n">
-        <v>2623.573505376138</v>
+        <v>1565.426559416552</v>
       </c>
       <c r="O36" t="n">
-        <v>2623.573505376138</v>
+        <v>2234.890320719211</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2417.533798332562</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7096,10 +7096,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7111,10 +7111,10 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,19 +7163,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7187,37 +7187,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="M39" t="n">
-        <v>2056.693778606511</v>
+        <v>583.87361314235</v>
       </c>
       <c r="N39" t="n">
-        <v>2623.573505376138</v>
+        <v>1388.285191406501</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>2057.74895270916</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2578.049574444907</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7375,7 +7375,7 @@
         <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>772.8730769161741</v>
       </c>
       <c r="N42" t="n">
-        <v>2623.573505376138</v>
+        <v>1577.284655180325</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>1826.038069264287</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
         <v>320.884739850451</v>
@@ -7564,16 +7564,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,28 +7591,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7634,49 +7634,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F45" t="n">
         <v>358.2718071316295</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>744.368461879264</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7761,7 +7761,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7789,13 +7789,13 @@
         <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,7 +7807,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,16 +9243,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9492,7 +9492,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>205.2525009706033</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>188.9284341812111</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9732,10 +9732,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,16 +9963,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10194,25 +10194,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>329.8473198249039</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>340.2467274008334</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10440,13 +10440,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10677,13 +10677,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,10 +10902,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10914,16 +10914,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>185.9655427034266</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11151,13 +11151,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,10 +11376,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11388,13 +11388,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22556,7 +22556,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>48.78241294253306</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22711,13 +22711,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>20.0618194936516</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22756,10 +22756,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>63.13204062090065</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>140.7163658137794</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985783</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>95.68260218070129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>97.90497088850279</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23701,19 +23701,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>150.6426047107265</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.9934819394555</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>171.306448079218</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24181,19 +24181,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>32.88710999935245</v>
+        <v>213.0220289556701</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,16 +24412,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>269.435914649652</v>
+        <v>115.2640032163532</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>123.5540860513857</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>212.6766148968553</v>
       </c>
     </row>
     <row r="29">
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1251292.991160669</v>
+        <v>1251292.991160668</v>
       </c>
     </row>
     <row r="7">
@@ -26314,19 +26314,19 @@
         <v>122046.641203581</v>
       </c>
       <c r="C2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="D2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="E2" t="n">
-        <v>117308.7179213125</v>
+        <v>117308.7179213126</v>
       </c>
       <c r="F2" t="n">
         <v>117308.7179213126</v>
       </c>
       <c r="G2" t="n">
-        <v>117308.7179213126</v>
+        <v>117308.7179213125</v>
       </c>
       <c r="H2" t="n">
         <v>117308.7179213126</v>
@@ -26338,7 +26338,7 @@
         <v>117308.7179213126</v>
       </c>
       <c r="K2" t="n">
-        <v>123156.2654796426</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="L2" t="n">
         <v>123156.2654796425</v>
@@ -26353,7 +26353,7 @@
         <v>123156.2654796426</v>
       </c>
       <c r="P2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371238</v>
+        <v>54505.5121037124</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>54505.51210371251</v>
+        <v>54505.51210371263</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134836.8924937719</v>
+        <v>134836.8924937718</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26424,40 +26424,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
+        <v>787.7936905759037</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758875</v>
+      </c>
+      <c r="H4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="G4" t="n">
-        <v>787.7936905758822</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758694</v>
-      </c>
       <c r="I4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905757998</v>
+        <v>787.7936905757999</v>
       </c>
       <c r="K4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189633</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189639</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189635</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,13 +26476,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26503,13 +26503,13 @@
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="O5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-685617.2085681447</v>
+        <v>-685635.7023060792</v>
       </c>
       <c r="C6" t="n">
-        <v>-98761.95176438615</v>
+        <v>-98761.95176438606</v>
       </c>
       <c r="D6" t="n">
-        <v>-98761.95176438613</v>
+        <v>-98761.95176438607</v>
       </c>
       <c r="E6" t="n">
-        <v>-500626.4381948761</v>
+        <v>-500723.8973208482</v>
       </c>
       <c r="F6" t="n">
-        <v>24533.59828202006</v>
+        <v>24436.13915604788</v>
       </c>
       <c r="G6" t="n">
-        <v>24533.5982820201</v>
+        <v>24436.13915604785</v>
       </c>
       <c r="H6" t="n">
-        <v>24533.59828202012</v>
+        <v>24436.13915604794</v>
       </c>
       <c r="I6" t="n">
-        <v>24533.59828202006</v>
+        <v>24436.1391560479</v>
       </c>
       <c r="J6" t="n">
-        <v>-151889.620910573</v>
+        <v>-151987.0800365452</v>
       </c>
       <c r="K6" t="n">
-        <v>-52270.93337599156</v>
+        <v>-52270.93337599162</v>
       </c>
       <c r="L6" t="n">
+        <v>2234.5787277208</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-132566.4365061164</v>
+      </c>
+      <c r="N6" t="n">
         <v>2234.578727720786</v>
       </c>
-      <c r="M6" t="n">
-        <v>-132566.4365061165</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2234.5787277208</v>
-      </c>
       <c r="O6" t="n">
-        <v>2234.578727720844</v>
+        <v>2234.578727720829</v>
       </c>
       <c r="P6" t="n">
-        <v>-52270.93337599172</v>
+        <v>-52270.93337599177</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,22 +26735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26774,10 +26774,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545562</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27051,7 +27051,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>140.6091067774042</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,16 +27433,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>217.8592496867366</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>147.2479827653993</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>17.64056718375429</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>330.3340867866914</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>10.67014368448679</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>72.13083137729286</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.4965719164582</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>240.3393369363924</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.6682594534182</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>19.95020101970769</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,19 +28062,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>215.2702419906777</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>7.531752999057062e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -29287,10 +29287,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>-1.534772309241816e-12</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="32">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31142,25 +31142,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392718</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31373,31 +31373,31 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>162.4518126576413</v>
       </c>
       <c r="N6" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,19 +31592,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423996</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31613,7 +31613,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,10 +31838,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>24.03312854020663</v>
       </c>
       <c r="L12" t="n">
         <v>387.8120847358985</v>
@@ -31853,22 +31853,22 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>171.3135836203298</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,16 +32075,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>188.7581524866007</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -32093,13 +32093,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>164.4358785485907</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,16 +32242,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,37 +32312,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>313.6340689672595</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>116.1946915159896</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32561,7 +32561,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>185.2928442992126</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32570,10 +32570,10 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677464</v>
@@ -32795,22 +32795,22 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>91.84465193776663</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -33026,28 +33026,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>119.4431162246985</v>
+        <v>70.36758305239186</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33184,7 +33184,7 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041472</v>
       </c>
       <c r="L29" t="n">
         <v>526.7962671304441</v>
@@ -33263,22 +33263,22 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>425.8974584957645</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -33500,28 +33500,28 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33734,31 +33734,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>127.288016598936</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33895,7 +33895,7 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
         <v>526.796267130444</v>
@@ -33974,28 +33974,28 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>312.2752819045316</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34299,10 +34299,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>330.1172231204811</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34536,10 +34536,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,10 +35261,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.6569265784262</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
@@ -35501,16 +35501,16 @@
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>241.4090972701574</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>315.3819505248204</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
         <v>348.0006622602202</v>
@@ -35741,13 +35741,13 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>348.9242397741976</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,16 +35884,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
         <v>713.1546070951472</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>545.9200344908445</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>300.6830527415966</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>620.0980502594834</v>
@@ -36209,19 +36209,19 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>533.2935065594328</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>62.65625652615883</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>51.08699520685212</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
         <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>343.1107267700517</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>443.0141460526801</v>
+        <v>393.9386128803735</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109073</v>
@@ -36850,7 +36850,7 @@
         <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
         <v>59.82538970349813</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594836</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>749.4684883237461</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>198.5056077415707</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520623</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N31" t="n">
         <v>341.4087679352443</v>
@@ -37008,7 +37008,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>201.6923476209592</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>197.3835302487636</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,7 +37543,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37622,25 +37622,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>45.98376861740505</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520623</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37719,7 +37719,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>496.7636431301385</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N43" t="n">
         <v>341.4087679352443</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>653.6882529484627</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38181,13 +38181,13 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N46" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
